--- a/4_manuscript/Supplementary_data/Supplementary Data 2.xlsx
+++ b/4_manuscript/Supplementary_data/Supplementary Data 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shenlab/shenlab_project/mapa/mapa_manuscript/4_manuscript/Supplementary_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96A1FB0-019B-AC4A-B0C7-02EFE9DDB239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB08583-CF43-234D-A312-C0B6368A27F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35020" yWindow="500" windowWidth="29040" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35020" yWindow="500" windowWidth="29040" windowHeight="19960" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="curated_dataset_1" sheetId="4" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="clustering_result" sheetId="2" r:id="rId4"/>
     <sheet name="annotation_result" sheetId="3" r:id="rId5"/>
     <sheet name="human_expert_vs_tool_sim" sheetId="1" r:id="rId6"/>
+    <sheet name="curated_dataset_2" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3059" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3720" uniqueCount="600">
   <si>
     <t>functional_module</t>
   </si>
@@ -662,6 +663,1182 @@
   </si>
   <si>
     <t>sim_lin</t>
+  </si>
+  <si>
+    <t>jw_dist</t>
+  </si>
+  <si>
+    <t>Glutathione Metabolism</t>
+  </si>
+  <si>
+    <t>SMP0000015</t>
+  </si>
+  <si>
+    <t>Glutathione metabolism</t>
+  </si>
+  <si>
+    <t>hsa00480</t>
+  </si>
+  <si>
+    <t>Arginine and Proline Metabolism</t>
+  </si>
+  <si>
+    <t>SMP0000020</t>
+  </si>
+  <si>
+    <t>Arginine and proline metabolism</t>
+  </si>
+  <si>
+    <t>hsa00330</t>
+  </si>
+  <si>
+    <t>beta-Alanine Metabolism</t>
+  </si>
+  <si>
+    <t>SMP0000007</t>
+  </si>
+  <si>
+    <t>beta-Alanine metabolism</t>
+  </si>
+  <si>
+    <t>hsa00410</t>
+  </si>
+  <si>
+    <t>Biotin Metabolism</t>
+  </si>
+  <si>
+    <t>SMP0000066</t>
+  </si>
+  <si>
+    <t>Biotin metabolism</t>
+  </si>
+  <si>
+    <t>hsa00780</t>
+  </si>
+  <si>
+    <t>Caffeine Metabolism</t>
+  </si>
+  <si>
+    <t>SMP0000028</t>
+  </si>
+  <si>
+    <t>Caffeine metabolism</t>
+  </si>
+  <si>
+    <t>hsa00232</t>
+  </si>
+  <si>
+    <t>Fatty Acid Metabolism</t>
+  </si>
+  <si>
+    <t>SMP0000051</t>
+  </si>
+  <si>
+    <t>Fatty acid metabolism</t>
+  </si>
+  <si>
+    <t>hsa01212</t>
+  </si>
+  <si>
+    <t>Lysine Degradation</t>
+  </si>
+  <si>
+    <t>SMP0000037</t>
+  </si>
+  <si>
+    <t>Lysine degradation</t>
+  </si>
+  <si>
+    <t>hsa00310</t>
+  </si>
+  <si>
+    <t>Pantothenate and CoA Biosynthesis</t>
+  </si>
+  <si>
+    <t>SMP0000027</t>
+  </si>
+  <si>
+    <t>Pantothenate and CoA biosynthesis</t>
+  </si>
+  <si>
+    <t>hsa00770</t>
+  </si>
+  <si>
+    <t>Riboflavin Metabolism</t>
+  </si>
+  <si>
+    <t>SMP0000070</t>
+  </si>
+  <si>
+    <t>Riboflavin metabolism</t>
+  </si>
+  <si>
+    <t>hsa00740</t>
+  </si>
+  <si>
+    <t>Thiamine Metabolism</t>
+  </si>
+  <si>
+    <t>SMP0000076</t>
+  </si>
+  <si>
+    <t>Thiamine metabolism</t>
+  </si>
+  <si>
+    <t>hsa00730</t>
+  </si>
+  <si>
+    <t>Taurine and Hypotaurine Metabolism</t>
+  </si>
+  <si>
+    <t>SMP0000021</t>
+  </si>
+  <si>
+    <t>Taurine and hypotaurine metabolism</t>
+  </si>
+  <si>
+    <t>hsa00430</t>
+  </si>
+  <si>
+    <t>Histidine Metabolism</t>
+  </si>
+  <si>
+    <t>SMP0000044</t>
+  </si>
+  <si>
+    <t>Histidine metabolism</t>
+  </si>
+  <si>
+    <t>hsa00340</t>
+  </si>
+  <si>
+    <t>Arachidonic Acid Metabolism</t>
+  </si>
+  <si>
+    <t>SMP0000075</t>
+  </si>
+  <si>
+    <t>Arachidonic acid metabolism</t>
+  </si>
+  <si>
+    <t>hsa00590</t>
+  </si>
+  <si>
+    <t>Steroid Biosynthesis</t>
+  </si>
+  <si>
+    <t>SMP0000023</t>
+  </si>
+  <si>
+    <t>Steroid biosynthesis</t>
+  </si>
+  <si>
+    <t>hsa00100</t>
+  </si>
+  <si>
+    <t>Valine, Leucine, and Isoleucine Degradation</t>
+  </si>
+  <si>
+    <t>SMP0000032</t>
+  </si>
+  <si>
+    <t>Valine, leucine and isoleucine degradation</t>
+  </si>
+  <si>
+    <t>hsa00280</t>
+  </si>
+  <si>
+    <t>Purine Metabolism</t>
+  </si>
+  <si>
+    <t>SMP0000050</t>
+  </si>
+  <si>
+    <t>Purine metabolism</t>
+  </si>
+  <si>
+    <t>hsa00230</t>
+  </si>
+  <si>
+    <t>Vitamin B6 Metabolism</t>
+  </si>
+  <si>
+    <t>SMP0000017</t>
+  </si>
+  <si>
+    <t>Vitamin B6 metabolism</t>
+  </si>
+  <si>
+    <t>hsa00750</t>
+  </si>
+  <si>
+    <t>Pyruvate Metabolism</t>
+  </si>
+  <si>
+    <t>SMP0000060</t>
+  </si>
+  <si>
+    <t>Pyruvate metabolism</t>
+  </si>
+  <si>
+    <t>hsa00620</t>
+  </si>
+  <si>
+    <t>Pentose Phosphate Pathway</t>
+  </si>
+  <si>
+    <t>SMP0000031</t>
+  </si>
+  <si>
+    <t>Pentose phosphate pathway</t>
+  </si>
+  <si>
+    <t>hsa00030</t>
+  </si>
+  <si>
+    <t>Tyrosine Metabolism</t>
+  </si>
+  <si>
+    <t>SMP0000006</t>
+  </si>
+  <si>
+    <t>Tyrosine metabolism</t>
+  </si>
+  <si>
+    <t>hsa00350</t>
+  </si>
+  <si>
+    <t>Glycerolipid Metabolism</t>
+  </si>
+  <si>
+    <t>SMP0000039</t>
+  </si>
+  <si>
+    <t>Glycerolipid metabolism</t>
+  </si>
+  <si>
+    <t>hsa00561</t>
+  </si>
+  <si>
+    <t>Sphingolipid Metabolism</t>
+  </si>
+  <si>
+    <t>SMP0000034</t>
+  </si>
+  <si>
+    <t>Sphingolipid metabolism</t>
+  </si>
+  <si>
+    <t>hsa00600</t>
+  </si>
+  <si>
+    <t>Propanoate Metabolism</t>
+  </si>
+  <si>
+    <t>SMP0000016</t>
+  </si>
+  <si>
+    <t>Propanoate metabolism</t>
+  </si>
+  <si>
+    <t>hsa00640</t>
+  </si>
+  <si>
+    <t>Starch and Sucrose Metabolism</t>
+  </si>
+  <si>
+    <t>SMP0000058</t>
+  </si>
+  <si>
+    <t>Starch and sucrose metabolism</t>
+  </si>
+  <si>
+    <t>hsa00500</t>
+  </si>
+  <si>
+    <t>Nicotinate and Nicotinamide Metabolism</t>
+  </si>
+  <si>
+    <t>SMP0000048</t>
+  </si>
+  <si>
+    <t>Nicotinate and nicotinamide metabolism</t>
+  </si>
+  <si>
+    <t>hsa00760</t>
+  </si>
+  <si>
+    <t>Inositol Phosphate Metabolism</t>
+  </si>
+  <si>
+    <t>SMP0000462</t>
+  </si>
+  <si>
+    <t>Inositol phosphate metabolism</t>
+  </si>
+  <si>
+    <t>hsa00562</t>
+  </si>
+  <si>
+    <t>Porphyrin Metabolism</t>
+  </si>
+  <si>
+    <t>SMP0000024</t>
+  </si>
+  <si>
+    <t>Porphyrin metabolism</t>
+  </si>
+  <si>
+    <t>hsa00860</t>
+  </si>
+  <si>
+    <t>Galactose Metabolism</t>
+  </si>
+  <si>
+    <t>SMP0000043</t>
+  </si>
+  <si>
+    <t>Galactose metabolism</t>
+  </si>
+  <si>
+    <t>hsa00052</t>
+  </si>
+  <si>
+    <t>Pyrimidine Metabolism</t>
+  </si>
+  <si>
+    <t>SMP0000046</t>
+  </si>
+  <si>
+    <t>Pyrimidine metabolism</t>
+  </si>
+  <si>
+    <t>hsa00240</t>
+  </si>
+  <si>
+    <t>Tryptophan Metabolism</t>
+  </si>
+  <si>
+    <t>SMP0000063</t>
+  </si>
+  <si>
+    <t>Tryptophan metabolism</t>
+  </si>
+  <si>
+    <t>hsa00380</t>
+  </si>
+  <si>
+    <t>Retinol Metabolism</t>
+  </si>
+  <si>
+    <t>SMP0000074</t>
+  </si>
+  <si>
+    <t>Retinol metabolism</t>
+  </si>
+  <si>
+    <t>hsa00830</t>
+  </si>
+  <si>
+    <t>Fatty Acid Biosynthesis</t>
+  </si>
+  <si>
+    <t>SMP0000456</t>
+  </si>
+  <si>
+    <t>Nucleotide Excision Repair</t>
+  </si>
+  <si>
+    <t>SMP0000478</t>
+  </si>
+  <si>
+    <t>Nucleotide excision repair</t>
+  </si>
+  <si>
+    <t>hsa03420</t>
+  </si>
+  <si>
+    <t>Thyroid Hormone Synthesis</t>
+  </si>
+  <si>
+    <t>SMP0000716</t>
+  </si>
+  <si>
+    <t>Thyroid hormone synthesis</t>
+  </si>
+  <si>
+    <t>hsa04918</t>
+  </si>
+  <si>
+    <t>P53 Signaling Pathway</t>
+  </si>
+  <si>
+    <t>SMP0063782</t>
+  </si>
+  <si>
+    <t>p53 signaling pathway</t>
+  </si>
+  <si>
+    <t>hsa04115</t>
+  </si>
+  <si>
+    <t>Ras Signaling Pathway</t>
+  </si>
+  <si>
+    <t>SMP0063784</t>
+  </si>
+  <si>
+    <t>Ras signaling pathway</t>
+  </si>
+  <si>
+    <t>hsa04014</t>
+  </si>
+  <si>
+    <t>GnRH Signaling Pathway</t>
+  </si>
+  <si>
+    <t>SMP0063811</t>
+  </si>
+  <si>
+    <t>GnRH signaling pathway</t>
+  </si>
+  <si>
+    <t>hsa04912</t>
+  </si>
+  <si>
+    <t>T Cell Receptor Signaling Pathway</t>
+  </si>
+  <si>
+    <t>SMP0066977</t>
+  </si>
+  <si>
+    <t>WNT Signaling Pathway</t>
+  </si>
+  <si>
+    <t>SMP0077591</t>
+  </si>
+  <si>
+    <t>Wnt signaling pathway</t>
+  </si>
+  <si>
+    <t>hsa04310</t>
+  </si>
+  <si>
+    <t>Circadian Rhythms</t>
+  </si>
+  <si>
+    <t>SMP0090831</t>
+  </si>
+  <si>
+    <t>Circadian rhythm</t>
+  </si>
+  <si>
+    <t>hsa04710</t>
+  </si>
+  <si>
+    <t>Rap1 signaling pathway</t>
+  </si>
+  <si>
+    <t>hsa04015</t>
+  </si>
+  <si>
+    <t>DNA Replication Fork</t>
+  </si>
+  <si>
+    <t>SMP0000477</t>
+  </si>
+  <si>
+    <t>Insulin Signalling</t>
+  </si>
+  <si>
+    <t>SMP0000391</t>
+  </si>
+  <si>
+    <t>Insulin signaling pathway</t>
+  </si>
+  <si>
+    <t>hsa04910</t>
+  </si>
+  <si>
+    <t>Fatty Acid Elongation in Mitochondria</t>
+  </si>
+  <si>
+    <t>SMP0000054</t>
+  </si>
+  <si>
+    <t>pathway_name_1</t>
+  </si>
+  <si>
+    <t>pathway_id_1</t>
+  </si>
+  <si>
+    <t>pathway_name_2</t>
+  </si>
+  <si>
+    <t>pathway_id_2</t>
+  </si>
+  <si>
+    <t>database_pair_class</t>
+  </si>
+  <si>
+    <t>SMPDB_KEGG</t>
+  </si>
+  <si>
+    <t>Alanine Metabolism</t>
+  </si>
+  <si>
+    <t>SMP0000055</t>
+  </si>
+  <si>
+    <t>Alanine metabolism</t>
+  </si>
+  <si>
+    <t>R-HSA-8964540</t>
+  </si>
+  <si>
+    <t>Selenoamino Acid Metabolism</t>
+  </si>
+  <si>
+    <t>SMP0000029</t>
+  </si>
+  <si>
+    <t>Selenoamino acid metabolism</t>
+  </si>
+  <si>
+    <t>R-HSA-2408522</t>
+  </si>
+  <si>
+    <t>Carnitine Synthesis</t>
+  </si>
+  <si>
+    <t>SMP0000465</t>
+  </si>
+  <si>
+    <t>Carnitine synthesis</t>
+  </si>
+  <si>
+    <t>R-HSA-71262</t>
+  </si>
+  <si>
+    <t>Catecholamine Biosynthesis</t>
+  </si>
+  <si>
+    <t>SMP0000012</t>
+  </si>
+  <si>
+    <t>Catecholamine biosynthesis</t>
+  </si>
+  <si>
+    <t>R-HSA-209905</t>
+  </si>
+  <si>
+    <t>R-HSA-8978868</t>
+  </si>
+  <si>
+    <t>Ketone Body Metabolism</t>
+  </si>
+  <si>
+    <t>SMP0000071</t>
+  </si>
+  <si>
+    <t>Ketone body metabolism</t>
+  </si>
+  <si>
+    <t>R-HSA-74182</t>
+  </si>
+  <si>
+    <t>Malate-Aspartate Shuttle</t>
+  </si>
+  <si>
+    <t>SMP0000129</t>
+  </si>
+  <si>
+    <t>Malate-aspartate shuttle</t>
+  </si>
+  <si>
+    <t>R-HSA-9856872</t>
+  </si>
+  <si>
+    <t>Phenylalanine and Tyrosine Metabolism</t>
+  </si>
+  <si>
+    <t>SMP0000008</t>
+  </si>
+  <si>
+    <t>Phenylalanine and tyrosine metabolism</t>
+  </si>
+  <si>
+    <t>R-HSA-8963691</t>
+  </si>
+  <si>
+    <t>Lactose Synthesis</t>
+  </si>
+  <si>
+    <t>SMP0000444</t>
+  </si>
+  <si>
+    <t>Lactose synthesis</t>
+  </si>
+  <si>
+    <t>R-HSA-5653890</t>
+  </si>
+  <si>
+    <t>R-HSA-70268</t>
+  </si>
+  <si>
+    <t>R-HSA-71336</t>
+  </si>
+  <si>
+    <t>beta-Ketothiolase Deficiency</t>
+  </si>
+  <si>
+    <t>SMP0000173</t>
+  </si>
+  <si>
+    <t>Beta-ketothiolase deficiency</t>
+  </si>
+  <si>
+    <t>R-HSA-9915355</t>
+  </si>
+  <si>
+    <t>Maple Syrup Urine Disease</t>
+  </si>
+  <si>
+    <t>SMP0000199</t>
+  </si>
+  <si>
+    <t>R-HSA-9865114</t>
+  </si>
+  <si>
+    <t>Phenylketonuria</t>
+  </si>
+  <si>
+    <t>SMP0000206</t>
+  </si>
+  <si>
+    <t>R-HSA-2160456</t>
+  </si>
+  <si>
+    <t>Glycolysis</t>
+  </si>
+  <si>
+    <t>SMP0000040</t>
+  </si>
+  <si>
+    <t>R-HSA-70171</t>
+  </si>
+  <si>
+    <t>R-HSA-428157</t>
+  </si>
+  <si>
+    <t>Gluconeogenesis</t>
+  </si>
+  <si>
+    <t>SMP0000128</t>
+  </si>
+  <si>
+    <t>R-HSA-70263</t>
+  </si>
+  <si>
+    <t>R-HSA-1483249</t>
+  </si>
+  <si>
+    <t>Beta Oxidation of Very Long Chain Fatty Acids</t>
+  </si>
+  <si>
+    <t>SMP0000052</t>
+  </si>
+  <si>
+    <t>Beta-oxidation of very long chain fatty acids</t>
+  </si>
+  <si>
+    <t>R-HSA-390247</t>
+  </si>
+  <si>
+    <t>Urea Cycle</t>
+  </si>
+  <si>
+    <t>SMP0000059</t>
+  </si>
+  <si>
+    <t>Urea cycle</t>
+  </si>
+  <si>
+    <t>R-HSA-70635</t>
+  </si>
+  <si>
+    <t>R-HSA-5696398</t>
+  </si>
+  <si>
+    <t>Isovaleric Acidemia</t>
+  </si>
+  <si>
+    <t>SMP0000524</t>
+  </si>
+  <si>
+    <t>Isovaleric acidemia</t>
+  </si>
+  <si>
+    <t>R-HSA-9914355</t>
+  </si>
+  <si>
+    <t>Striated Muscle Contraction</t>
+  </si>
+  <si>
+    <t>SMP0000588</t>
+  </si>
+  <si>
+    <t>R-HSA-390522</t>
+  </si>
+  <si>
+    <t>3-Methylcrotonyl-CoA Carboxylase Deficiency Type I</t>
+  </si>
+  <si>
+    <t>SMP0000237</t>
+  </si>
+  <si>
+    <t>3-Methylcrotonyl-CoA carboxylase deficiency</t>
+  </si>
+  <si>
+    <t>R-HSA-9909438</t>
+  </si>
+  <si>
+    <t>3-Methylglutaconic Aciduria Type I</t>
+  </si>
+  <si>
+    <t>SMP0000139</t>
+  </si>
+  <si>
+    <t>3-methylglutaconic aciduria</t>
+  </si>
+  <si>
+    <t>R-HSA-9914274</t>
+  </si>
+  <si>
+    <t>3-Methylglutaconic Aciduria Type IV</t>
+  </si>
+  <si>
+    <t>SMP0000141</t>
+  </si>
+  <si>
+    <t>3-Methylglutaconic Aciduria Type III</t>
+  </si>
+  <si>
+    <t>SMP0000140</t>
+  </si>
+  <si>
+    <t>Isovaleric Aciduria</t>
+  </si>
+  <si>
+    <t>SMP0000238</t>
+  </si>
+  <si>
+    <t>Pentose phosphate pathway disease</t>
+  </si>
+  <si>
+    <t>R-HSA-6791465</t>
+  </si>
+  <si>
+    <t>Histidine catabolism</t>
+  </si>
+  <si>
+    <t>R-HSA-70921</t>
+  </si>
+  <si>
+    <t>Galactose catabolism</t>
+  </si>
+  <si>
+    <t>R-HSA-70370</t>
+  </si>
+  <si>
+    <t>Tyrosine catabolism</t>
+  </si>
+  <si>
+    <t>R-HSA-8963684</t>
+  </si>
+  <si>
+    <t>Purine catabolism</t>
+  </si>
+  <si>
+    <t>R-HSA-74259</t>
+  </si>
+  <si>
+    <t>Plasmalogen Synthesis</t>
+  </si>
+  <si>
+    <t>SMP0000479</t>
+  </si>
+  <si>
+    <t>Plasmalogen biosynthesis</t>
+  </si>
+  <si>
+    <t>R-HSA-75896</t>
+  </si>
+  <si>
+    <t>Citric Acid Cycle</t>
+  </si>
+  <si>
+    <t>SMP0000057</t>
+  </si>
+  <si>
+    <t>Citric acid cycle (TCA cycle)</t>
+  </si>
+  <si>
+    <t>R-HSA-71403</t>
+  </si>
+  <si>
+    <t>Sphingolipid catabolism</t>
+  </si>
+  <si>
+    <t>R-HSA-9845614</t>
+  </si>
+  <si>
+    <t>Ubiquinone Biosynthesis</t>
+  </si>
+  <si>
+    <t>SMP0000065</t>
+  </si>
+  <si>
+    <t>Ubiquinol biosynthesis</t>
+  </si>
+  <si>
+    <t>R-HSA-2142789</t>
+  </si>
+  <si>
+    <t>Alternative Complement Pathway</t>
+  </si>
+  <si>
+    <t>SMP0063815</t>
+  </si>
+  <si>
+    <t>Alternative complement activation</t>
+  </si>
+  <si>
+    <t>R-HSA-173736</t>
+  </si>
+  <si>
+    <t>Pyrimidine catabolism</t>
+  </si>
+  <si>
+    <t>R-HSA-73621</t>
+  </si>
+  <si>
+    <t>Tryptophan catabolism</t>
+  </si>
+  <si>
+    <t>R-HSA-71240</t>
+  </si>
+  <si>
+    <t>Alpha Linolenic Acid and Linoleic Acid Metabolism</t>
+  </si>
+  <si>
+    <t>SMP0000018</t>
+  </si>
+  <si>
+    <t>alpha-linolenic acid (ALA) metabolism</t>
+  </si>
+  <si>
+    <t>R-HSA-2046106</t>
+  </si>
+  <si>
+    <t>Mucopolysaccharidosis VII. Sly Syndrome</t>
+  </si>
+  <si>
+    <t>SMP0000556</t>
+  </si>
+  <si>
+    <t>Mucopolysaccharidoses</t>
+  </si>
+  <si>
+    <t>R-HSA-2206281</t>
+  </si>
+  <si>
+    <t>SMPDB_Reactome</t>
+  </si>
+  <si>
+    <t>Phenylalanine metabolism</t>
+  </si>
+  <si>
+    <t>hsa00360</t>
+  </si>
+  <si>
+    <t>R-HSA-8964208</t>
+  </si>
+  <si>
+    <t>Base excision repair</t>
+  </si>
+  <si>
+    <t>hsa03410</t>
+  </si>
+  <si>
+    <t>Base Excision Repair</t>
+  </si>
+  <si>
+    <t>R-HSA-73884</t>
+  </si>
+  <si>
+    <t>Mismatch repair</t>
+  </si>
+  <si>
+    <t>hsa03430</t>
+  </si>
+  <si>
+    <t>Mismatch Repair</t>
+  </si>
+  <si>
+    <t>R-HSA-5358508</t>
+  </si>
+  <si>
+    <t>Fanconi anemia pathway</t>
+  </si>
+  <si>
+    <t>hsa03460</t>
+  </si>
+  <si>
+    <t>Fanconi Anemia Pathway</t>
+  </si>
+  <si>
+    <t>R-HSA-6783310</t>
+  </si>
+  <si>
+    <t>Cell cycle</t>
+  </si>
+  <si>
+    <t>hsa04110</t>
+  </si>
+  <si>
+    <t>Cell Cycle</t>
+  </si>
+  <si>
+    <t>R-HSA-1640170</t>
+  </si>
+  <si>
+    <t>R-HSA-109581</t>
+  </si>
+  <si>
+    <t>Cellular senescence</t>
+  </si>
+  <si>
+    <t>hsa04218</t>
+  </si>
+  <si>
+    <t>Cellular Senescence</t>
+  </si>
+  <si>
+    <t>R-HSA-2559583</t>
+  </si>
+  <si>
+    <t>Axon guidance</t>
+  </si>
+  <si>
+    <t>hsa04360</t>
+  </si>
+  <si>
+    <t>R-HSA-422475</t>
+  </si>
+  <si>
+    <t>Long-term potentiation</t>
+  </si>
+  <si>
+    <t>hsa04720</t>
+  </si>
+  <si>
+    <t>R-HSA-9620244</t>
+  </si>
+  <si>
+    <t>Non-homologous end-joining</t>
+  </si>
+  <si>
+    <t>hsa03450</t>
+  </si>
+  <si>
+    <t>Nonhomologous End-Joining (NHEJ)</t>
+  </si>
+  <si>
+    <t>R-HSA-5693571</t>
+  </si>
+  <si>
+    <t>alpha-Linolenic acid metabolism</t>
+  </si>
+  <si>
+    <t>hsa00592</t>
+  </si>
+  <si>
+    <t>Linoleic acid metabolism</t>
+  </si>
+  <si>
+    <t>hsa00591</t>
+  </si>
+  <si>
+    <t>Linoleic acid (LA) metabolism</t>
+  </si>
+  <si>
+    <t>R-HSA-2046105</t>
+  </si>
+  <si>
+    <t>Glycerophospholipid metabolism</t>
+  </si>
+  <si>
+    <t>hsa00564</t>
+  </si>
+  <si>
+    <t>Glycerophospholipid catabolism</t>
+  </si>
+  <si>
+    <t>R-HSA-6814848</t>
+  </si>
+  <si>
+    <t>Glycosphingolipid biosynthesis - ganglio series</t>
+  </si>
+  <si>
+    <t>hsa00604</t>
+  </si>
+  <si>
+    <t>Glycosphingolipid biosynthesis</t>
+  </si>
+  <si>
+    <t>R-HSA-9840309</t>
+  </si>
+  <si>
+    <t>ABC transporters</t>
+  </si>
+  <si>
+    <t>hsa02010</t>
+  </si>
+  <si>
+    <t>ABC transporter disorders</t>
+  </si>
+  <si>
+    <t>R-HSA-5619084</t>
+  </si>
+  <si>
+    <t>Autophagy - other</t>
+  </si>
+  <si>
+    <t>hsa04136</t>
+  </si>
+  <si>
+    <t>Autophagy</t>
+  </si>
+  <si>
+    <t>R-HSA-9612973</t>
+  </si>
+  <si>
+    <t>TNF signaling pathway</t>
+  </si>
+  <si>
+    <t>hsa04668</t>
+  </si>
+  <si>
+    <t>TNF signaling</t>
+  </si>
+  <si>
+    <t>R-HSA-75893</t>
+  </si>
+  <si>
+    <t>Antigen processing and presentation</t>
+  </si>
+  <si>
+    <t>hsa04612</t>
+  </si>
+  <si>
+    <t>Antigen processing-Cross presentation</t>
+  </si>
+  <si>
+    <t>R-HSA-1236975</t>
+  </si>
+  <si>
+    <t>Mitophagy - animal</t>
+  </si>
+  <si>
+    <t>hsa04137</t>
+  </si>
+  <si>
+    <t>Mitophagy</t>
+  </si>
+  <si>
+    <t>R-HSA-5205647</t>
+  </si>
+  <si>
+    <t>Autophagy - animal</t>
+  </si>
+  <si>
+    <t>hsa04140</t>
+  </si>
+  <si>
+    <t>Leishmaniasis</t>
+  </si>
+  <si>
+    <t>hsa05140</t>
+  </si>
+  <si>
+    <t>Leishmania phagocytosis</t>
+  </si>
+  <si>
+    <t>R-HSA-9664417</t>
+  </si>
+  <si>
+    <t>Gap junction</t>
+  </si>
+  <si>
+    <t>hsa04540</t>
+  </si>
+  <si>
+    <t>Gap junction assembly</t>
+  </si>
+  <si>
+    <t>R-HSA-190861</t>
+  </si>
+  <si>
+    <t>Rap1 signalling</t>
+  </si>
+  <si>
+    <t>R-HSA-392517</t>
+  </si>
+  <si>
+    <t>mTOR signaling pathway</t>
+  </si>
+  <si>
+    <t>hsa04150</t>
+  </si>
+  <si>
+    <t>MTOR signalling</t>
+  </si>
+  <si>
+    <t>R-HSA-165159</t>
+  </si>
+  <si>
+    <t>Glycosphingolipid biosynthesis - lacto and neolacto series</t>
+  </si>
+  <si>
+    <t>hsa00601</t>
+  </si>
+  <si>
+    <t>Glycosphingolipid biosynthesis - globo and isoglobo series</t>
+  </si>
+  <si>
+    <t>hsa00603</t>
+  </si>
+  <si>
+    <t>Cell Cycle, Mitotic</t>
+  </si>
+  <si>
+    <t>R-HSA-69278</t>
+  </si>
+  <si>
+    <t>Adherens junction</t>
+  </si>
+  <si>
+    <t>hsa04520</t>
+  </si>
+  <si>
+    <t>Adherens junctions interactions</t>
+  </si>
+  <si>
+    <t>R-HSA-418990</t>
+  </si>
+  <si>
+    <t>KEGG_Reactome</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +2207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31CB07C-DB8D-8D4B-8A33-E35BC57BDDB3}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -34215,4 +35392,2667 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5BC18F-968B-844C-AFFA-F2DF04D742F2}">
+  <dimension ref="A1:F132"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H109" sqref="H109"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D11" t="s">
+        <v>248</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D12" t="s">
+        <v>252</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>253</v>
+      </c>
+      <c r="B13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C13" t="s">
+        <v>255</v>
+      </c>
+      <c r="D13" t="s">
+        <v>256</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>257</v>
+      </c>
+      <c r="B14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C14" t="s">
+        <v>259</v>
+      </c>
+      <c r="D14" t="s">
+        <v>260</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>261</v>
+      </c>
+      <c r="B15" t="s">
+        <v>262</v>
+      </c>
+      <c r="C15" t="s">
+        <v>263</v>
+      </c>
+      <c r="D15" t="s">
+        <v>264</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>265</v>
+      </c>
+      <c r="B16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C16" t="s">
+        <v>267</v>
+      </c>
+      <c r="D16" t="s">
+        <v>268</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>269</v>
+      </c>
+      <c r="B17" t="s">
+        <v>270</v>
+      </c>
+      <c r="C17" t="s">
+        <v>271</v>
+      </c>
+      <c r="D17" t="s">
+        <v>272</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>273</v>
+      </c>
+      <c r="B18" t="s">
+        <v>274</v>
+      </c>
+      <c r="C18" t="s">
+        <v>275</v>
+      </c>
+      <c r="D18" t="s">
+        <v>276</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>277</v>
+      </c>
+      <c r="B19" t="s">
+        <v>278</v>
+      </c>
+      <c r="C19" t="s">
+        <v>279</v>
+      </c>
+      <c r="D19" t="s">
+        <v>280</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>281</v>
+      </c>
+      <c r="B20" t="s">
+        <v>282</v>
+      </c>
+      <c r="C20" t="s">
+        <v>283</v>
+      </c>
+      <c r="D20" t="s">
+        <v>284</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>285</v>
+      </c>
+      <c r="B21" t="s">
+        <v>286</v>
+      </c>
+      <c r="C21" t="s">
+        <v>287</v>
+      </c>
+      <c r="D21" t="s">
+        <v>288</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>289</v>
+      </c>
+      <c r="B22" t="s">
+        <v>290</v>
+      </c>
+      <c r="C22" t="s">
+        <v>291</v>
+      </c>
+      <c r="D22" t="s">
+        <v>292</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>293</v>
+      </c>
+      <c r="B23" t="s">
+        <v>294</v>
+      </c>
+      <c r="C23" t="s">
+        <v>295</v>
+      </c>
+      <c r="D23" t="s">
+        <v>296</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>297</v>
+      </c>
+      <c r="B24" t="s">
+        <v>298</v>
+      </c>
+      <c r="C24" t="s">
+        <v>299</v>
+      </c>
+      <c r="D24" t="s">
+        <v>300</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>301</v>
+      </c>
+      <c r="B25" t="s">
+        <v>302</v>
+      </c>
+      <c r="C25" t="s">
+        <v>303</v>
+      </c>
+      <c r="D25" t="s">
+        <v>304</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>305</v>
+      </c>
+      <c r="B26" t="s">
+        <v>306</v>
+      </c>
+      <c r="C26" t="s">
+        <v>307</v>
+      </c>
+      <c r="D26" t="s">
+        <v>308</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>309</v>
+      </c>
+      <c r="B27" t="s">
+        <v>310</v>
+      </c>
+      <c r="C27" t="s">
+        <v>311</v>
+      </c>
+      <c r="D27" t="s">
+        <v>312</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>313</v>
+      </c>
+      <c r="B28" t="s">
+        <v>314</v>
+      </c>
+      <c r="C28" t="s">
+        <v>315</v>
+      </c>
+      <c r="D28" t="s">
+        <v>316</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>317</v>
+      </c>
+      <c r="B29" t="s">
+        <v>318</v>
+      </c>
+      <c r="C29" t="s">
+        <v>319</v>
+      </c>
+      <c r="D29" t="s">
+        <v>320</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>321</v>
+      </c>
+      <c r="B30" t="s">
+        <v>322</v>
+      </c>
+      <c r="C30" t="s">
+        <v>323</v>
+      </c>
+      <c r="D30" t="s">
+        <v>324</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>325</v>
+      </c>
+      <c r="B31" t="s">
+        <v>326</v>
+      </c>
+      <c r="C31" t="s">
+        <v>327</v>
+      </c>
+      <c r="D31" t="s">
+        <v>328</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>329</v>
+      </c>
+      <c r="B32" t="s">
+        <v>330</v>
+      </c>
+      <c r="C32" t="s">
+        <v>331</v>
+      </c>
+      <c r="D32" t="s">
+        <v>332</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>333</v>
+      </c>
+      <c r="B33" t="s">
+        <v>334</v>
+      </c>
+      <c r="C33" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>335</v>
+      </c>
+      <c r="B34" t="s">
+        <v>336</v>
+      </c>
+      <c r="C34" t="s">
+        <v>337</v>
+      </c>
+      <c r="D34" t="s">
+        <v>338</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>339</v>
+      </c>
+      <c r="B35" t="s">
+        <v>340</v>
+      </c>
+      <c r="C35" t="s">
+        <v>341</v>
+      </c>
+      <c r="D35" t="s">
+        <v>342</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>343</v>
+      </c>
+      <c r="B36" t="s">
+        <v>344</v>
+      </c>
+      <c r="C36" t="s">
+        <v>345</v>
+      </c>
+      <c r="D36" t="s">
+        <v>346</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>347</v>
+      </c>
+      <c r="B37" t="s">
+        <v>348</v>
+      </c>
+      <c r="C37" t="s">
+        <v>349</v>
+      </c>
+      <c r="D37" t="s">
+        <v>350</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>351</v>
+      </c>
+      <c r="B38" t="s">
+        <v>352</v>
+      </c>
+      <c r="C38" t="s">
+        <v>353</v>
+      </c>
+      <c r="D38" t="s">
+        <v>354</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>355</v>
+      </c>
+      <c r="B39" t="s">
+        <v>356</v>
+      </c>
+      <c r="C39" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>357</v>
+      </c>
+      <c r="B40" t="s">
+        <v>358</v>
+      </c>
+      <c r="C40" t="s">
+        <v>359</v>
+      </c>
+      <c r="D40" t="s">
+        <v>360</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>361</v>
+      </c>
+      <c r="B41" t="s">
+        <v>362</v>
+      </c>
+      <c r="C41" t="s">
+        <v>363</v>
+      </c>
+      <c r="D41" t="s">
+        <v>364</v>
+      </c>
+      <c r="E41">
+        <v>2.0833332999999999E-2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>347</v>
+      </c>
+      <c r="B42" t="s">
+        <v>348</v>
+      </c>
+      <c r="C42" t="s">
+        <v>365</v>
+      </c>
+      <c r="D42" t="s">
+        <v>366</v>
+      </c>
+      <c r="E42">
+        <v>5.0877193000000001E-2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>367</v>
+      </c>
+      <c r="B43" t="s">
+        <v>368</v>
+      </c>
+      <c r="C43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43">
+        <v>7.4074074000000004E-2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>369</v>
+      </c>
+      <c r="B44" t="s">
+        <v>370</v>
+      </c>
+      <c r="C44" t="s">
+        <v>371</v>
+      </c>
+      <c r="D44" t="s">
+        <v>372</v>
+      </c>
+      <c r="E44">
+        <v>0.12105711800000001</v>
+      </c>
+      <c r="F44" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>373</v>
+      </c>
+      <c r="B45" t="s">
+        <v>374</v>
+      </c>
+      <c r="C45" t="s">
+        <v>171</v>
+      </c>
+      <c r="D45" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45">
+        <v>0.14141414099999999</v>
+      </c>
+      <c r="F45" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>381</v>
+      </c>
+      <c r="B46" t="s">
+        <v>382</v>
+      </c>
+      <c r="C46" t="s">
+        <v>383</v>
+      </c>
+      <c r="D46" t="s">
+        <v>384</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>385</v>
+      </c>
+      <c r="B47" t="s">
+        <v>386</v>
+      </c>
+      <c r="C47" t="s">
+        <v>387</v>
+      </c>
+      <c r="D47" t="s">
+        <v>388</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>389</v>
+      </c>
+      <c r="B48" t="s">
+        <v>390</v>
+      </c>
+      <c r="C48" t="s">
+        <v>391</v>
+      </c>
+      <c r="D48" t="s">
+        <v>392</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>393</v>
+      </c>
+      <c r="B49" t="s">
+        <v>394</v>
+      </c>
+      <c r="C49" t="s">
+        <v>395</v>
+      </c>
+      <c r="D49" t="s">
+        <v>396</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>229</v>
+      </c>
+      <c r="B50" t="s">
+        <v>230</v>
+      </c>
+      <c r="C50" t="s">
+        <v>231</v>
+      </c>
+      <c r="D50" t="s">
+        <v>397</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>398</v>
+      </c>
+      <c r="B51" t="s">
+        <v>399</v>
+      </c>
+      <c r="C51" t="s">
+        <v>400</v>
+      </c>
+      <c r="D51" t="s">
+        <v>401</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>402</v>
+      </c>
+      <c r="B52" t="s">
+        <v>403</v>
+      </c>
+      <c r="C52" t="s">
+        <v>404</v>
+      </c>
+      <c r="D52" t="s">
+        <v>405</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>406</v>
+      </c>
+      <c r="B53" t="s">
+        <v>407</v>
+      </c>
+      <c r="C53" t="s">
+        <v>408</v>
+      </c>
+      <c r="D53" t="s">
+        <v>409</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>410</v>
+      </c>
+      <c r="B54" t="s">
+        <v>411</v>
+      </c>
+      <c r="C54" t="s">
+        <v>412</v>
+      </c>
+      <c r="D54" t="s">
+        <v>413</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>277</v>
+      </c>
+      <c r="B55" t="s">
+        <v>278</v>
+      </c>
+      <c r="C55" t="s">
+        <v>279</v>
+      </c>
+      <c r="D55" t="s">
+        <v>414</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>281</v>
+      </c>
+      <c r="B56" t="s">
+        <v>282</v>
+      </c>
+      <c r="C56" t="s">
+        <v>283</v>
+      </c>
+      <c r="D56" t="s">
+        <v>415</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>416</v>
+      </c>
+      <c r="B57" t="s">
+        <v>417</v>
+      </c>
+      <c r="C57" t="s">
+        <v>418</v>
+      </c>
+      <c r="D57" t="s">
+        <v>419</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>420</v>
+      </c>
+      <c r="B58" t="s">
+        <v>421</v>
+      </c>
+      <c r="C58" t="s">
+        <v>420</v>
+      </c>
+      <c r="D58" t="s">
+        <v>422</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>423</v>
+      </c>
+      <c r="B59" t="s">
+        <v>424</v>
+      </c>
+      <c r="C59" t="s">
+        <v>423</v>
+      </c>
+      <c r="D59" t="s">
+        <v>425</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>426</v>
+      </c>
+      <c r="B60" t="s">
+        <v>427</v>
+      </c>
+      <c r="C60" t="s">
+        <v>426</v>
+      </c>
+      <c r="D60" t="s">
+        <v>428</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>293</v>
+      </c>
+      <c r="B61" t="s">
+        <v>294</v>
+      </c>
+      <c r="C61" t="s">
+        <v>295</v>
+      </c>
+      <c r="D61" t="s">
+        <v>429</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>430</v>
+      </c>
+      <c r="B62" t="s">
+        <v>431</v>
+      </c>
+      <c r="C62" t="s">
+        <v>430</v>
+      </c>
+      <c r="D62" t="s">
+        <v>432</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>309</v>
+      </c>
+      <c r="B63" t="s">
+        <v>310</v>
+      </c>
+      <c r="C63" t="s">
+        <v>311</v>
+      </c>
+      <c r="D63" t="s">
+        <v>433</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>434</v>
+      </c>
+      <c r="B64" t="s">
+        <v>435</v>
+      </c>
+      <c r="C64" t="s">
+        <v>436</v>
+      </c>
+      <c r="D64" t="s">
+        <v>437</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>438</v>
+      </c>
+      <c r="B65" t="s">
+        <v>439</v>
+      </c>
+      <c r="C65" t="s">
+        <v>440</v>
+      </c>
+      <c r="D65" t="s">
+        <v>441</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>335</v>
+      </c>
+      <c r="B66" t="s">
+        <v>336</v>
+      </c>
+      <c r="C66" t="s">
+        <v>335</v>
+      </c>
+      <c r="D66" t="s">
+        <v>442</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>443</v>
+      </c>
+      <c r="B67" t="s">
+        <v>444</v>
+      </c>
+      <c r="C67" t="s">
+        <v>445</v>
+      </c>
+      <c r="D67" t="s">
+        <v>446</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>447</v>
+      </c>
+      <c r="B68" t="s">
+        <v>448</v>
+      </c>
+      <c r="C68" t="s">
+        <v>447</v>
+      </c>
+      <c r="D68" t="s">
+        <v>449</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>450</v>
+      </c>
+      <c r="B69" t="s">
+        <v>451</v>
+      </c>
+      <c r="C69" t="s">
+        <v>452</v>
+      </c>
+      <c r="D69" t="s">
+        <v>453</v>
+      </c>
+      <c r="E69">
+        <v>3.7878787999999997E-2</v>
+      </c>
+      <c r="F69" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>454</v>
+      </c>
+      <c r="B70" t="s">
+        <v>455</v>
+      </c>
+      <c r="C70" t="s">
+        <v>456</v>
+      </c>
+      <c r="D70" t="s">
+        <v>457</v>
+      </c>
+      <c r="E70">
+        <v>5.5555555999999999E-2</v>
+      </c>
+      <c r="F70" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>458</v>
+      </c>
+      <c r="B71" t="s">
+        <v>459</v>
+      </c>
+      <c r="C71" t="s">
+        <v>456</v>
+      </c>
+      <c r="D71" t="s">
+        <v>457</v>
+      </c>
+      <c r="E71">
+        <v>6.4516129000000005E-2</v>
+      </c>
+      <c r="F71" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>460</v>
+      </c>
+      <c r="B72" t="s">
+        <v>461</v>
+      </c>
+      <c r="C72" t="s">
+        <v>456</v>
+      </c>
+      <c r="D72" t="s">
+        <v>457</v>
+      </c>
+      <c r="E72">
+        <v>7.2916667000000004E-2</v>
+      </c>
+      <c r="F72" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>462</v>
+      </c>
+      <c r="B73" t="s">
+        <v>463</v>
+      </c>
+      <c r="C73" t="s">
+        <v>445</v>
+      </c>
+      <c r="D73" t="s">
+        <v>446</v>
+      </c>
+      <c r="E73">
+        <v>7.4074074000000004E-2</v>
+      </c>
+      <c r="F73" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>367</v>
+      </c>
+      <c r="B74" t="s">
+        <v>368</v>
+      </c>
+      <c r="C74" t="s">
+        <v>136</v>
+      </c>
+      <c r="D74" t="s">
+        <v>34</v>
+      </c>
+      <c r="E74">
+        <v>7.4074074000000004E-2</v>
+      </c>
+      <c r="F74" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>281</v>
+      </c>
+      <c r="B75" t="s">
+        <v>282</v>
+      </c>
+      <c r="C75" t="s">
+        <v>464</v>
+      </c>
+      <c r="D75" t="s">
+        <v>465</v>
+      </c>
+      <c r="E75">
+        <v>7.7777778000000006E-2</v>
+      </c>
+      <c r="F75" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>253</v>
+      </c>
+      <c r="B76" t="s">
+        <v>254</v>
+      </c>
+      <c r="C76" t="s">
+        <v>466</v>
+      </c>
+      <c r="D76" t="s">
+        <v>467</v>
+      </c>
+      <c r="E76">
+        <v>8.9783282000000006E-2</v>
+      </c>
+      <c r="F76" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>317</v>
+      </c>
+      <c r="B77" t="s">
+        <v>318</v>
+      </c>
+      <c r="C77" t="s">
+        <v>468</v>
+      </c>
+      <c r="D77" t="s">
+        <v>469</v>
+      </c>
+      <c r="E77">
+        <v>8.9783282000000006E-2</v>
+      </c>
+      <c r="F77" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>285</v>
+      </c>
+      <c r="B78" t="s">
+        <v>286</v>
+      </c>
+      <c r="C78" t="s">
+        <v>470</v>
+      </c>
+      <c r="D78" t="s">
+        <v>471</v>
+      </c>
+      <c r="E78">
+        <v>9.4907406999999999E-2</v>
+      </c>
+      <c r="F78" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>269</v>
+      </c>
+      <c r="B79" t="s">
+        <v>270</v>
+      </c>
+      <c r="C79" t="s">
+        <v>472</v>
+      </c>
+      <c r="D79" t="s">
+        <v>473</v>
+      </c>
+      <c r="E79">
+        <v>0.10714285699999999</v>
+      </c>
+      <c r="F79" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>474</v>
+      </c>
+      <c r="B80" t="s">
+        <v>475</v>
+      </c>
+      <c r="C80" t="s">
+        <v>476</v>
+      </c>
+      <c r="D80" t="s">
+        <v>477</v>
+      </c>
+      <c r="E80">
+        <v>0.110144928</v>
+      </c>
+      <c r="F80" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>478</v>
+      </c>
+      <c r="B81" t="s">
+        <v>479</v>
+      </c>
+      <c r="C81" t="s">
+        <v>480</v>
+      </c>
+      <c r="D81" t="s">
+        <v>481</v>
+      </c>
+      <c r="E81">
+        <v>0.115942029</v>
+      </c>
+      <c r="F81" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>293</v>
+      </c>
+      <c r="B82" t="s">
+        <v>294</v>
+      </c>
+      <c r="C82" t="s">
+        <v>482</v>
+      </c>
+      <c r="D82" t="s">
+        <v>483</v>
+      </c>
+      <c r="E82">
+        <v>0.118939394</v>
+      </c>
+      <c r="F82" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>484</v>
+      </c>
+      <c r="B83" t="s">
+        <v>485</v>
+      </c>
+      <c r="C83" t="s">
+        <v>486</v>
+      </c>
+      <c r="D83" t="s">
+        <v>487</v>
+      </c>
+      <c r="E83">
+        <v>0.121176046</v>
+      </c>
+      <c r="F83" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>488</v>
+      </c>
+      <c r="B84" t="s">
+        <v>489</v>
+      </c>
+      <c r="C84" t="s">
+        <v>490</v>
+      </c>
+      <c r="D84" t="s">
+        <v>491</v>
+      </c>
+      <c r="E84">
+        <v>0.122887865</v>
+      </c>
+      <c r="F84" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>321</v>
+      </c>
+      <c r="B85" t="s">
+        <v>322</v>
+      </c>
+      <c r="C85" t="s">
+        <v>492</v>
+      </c>
+      <c r="D85" t="s">
+        <v>493</v>
+      </c>
+      <c r="E85">
+        <v>0.13148148100000001</v>
+      </c>
+      <c r="F85" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>325</v>
+      </c>
+      <c r="B86" t="s">
+        <v>326</v>
+      </c>
+      <c r="C86" t="s">
+        <v>494</v>
+      </c>
+      <c r="D86" t="s">
+        <v>495</v>
+      </c>
+      <c r="E86">
+        <v>0.13148148100000001</v>
+      </c>
+      <c r="F86" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>496</v>
+      </c>
+      <c r="B87" t="s">
+        <v>497</v>
+      </c>
+      <c r="C87" t="s">
+        <v>498</v>
+      </c>
+      <c r="D87" t="s">
+        <v>499</v>
+      </c>
+      <c r="E87">
+        <v>0.13603400900000001</v>
+      </c>
+      <c r="F87" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>500</v>
+      </c>
+      <c r="B88" t="s">
+        <v>501</v>
+      </c>
+      <c r="C88" t="s">
+        <v>502</v>
+      </c>
+      <c r="D88" t="s">
+        <v>503</v>
+      </c>
+      <c r="E88">
+        <v>0.14920634899999999</v>
+      </c>
+      <c r="F88" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>283</v>
+      </c>
+      <c r="B89" t="s">
+        <v>284</v>
+      </c>
+      <c r="C89" t="s">
+        <v>283</v>
+      </c>
+      <c r="D89" t="s">
+        <v>415</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>505</v>
+      </c>
+      <c r="B90" t="s">
+        <v>506</v>
+      </c>
+      <c r="C90" t="s">
+        <v>505</v>
+      </c>
+      <c r="D90" t="s">
+        <v>507</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>311</v>
+      </c>
+      <c r="B91" t="s">
+        <v>312</v>
+      </c>
+      <c r="C91" t="s">
+        <v>311</v>
+      </c>
+      <c r="D91" t="s">
+        <v>433</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>295</v>
+      </c>
+      <c r="B92" t="s">
+        <v>296</v>
+      </c>
+      <c r="C92" t="s">
+        <v>295</v>
+      </c>
+      <c r="D92" t="s">
+        <v>429</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>279</v>
+      </c>
+      <c r="B93" t="s">
+        <v>280</v>
+      </c>
+      <c r="C93" t="s">
+        <v>279</v>
+      </c>
+      <c r="D93" t="s">
+        <v>414</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>231</v>
+      </c>
+      <c r="B94" t="s">
+        <v>232</v>
+      </c>
+      <c r="C94" t="s">
+        <v>231</v>
+      </c>
+      <c r="D94" t="s">
+        <v>397</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>132</v>
+      </c>
+      <c r="B95" t="s">
+        <v>32</v>
+      </c>
+      <c r="C95" t="s">
+        <v>136</v>
+      </c>
+      <c r="D95" t="s">
+        <v>34</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>508</v>
+      </c>
+      <c r="B96" t="s">
+        <v>509</v>
+      </c>
+      <c r="C96" t="s">
+        <v>510</v>
+      </c>
+      <c r="D96" t="s">
+        <v>511</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>337</v>
+      </c>
+      <c r="B97" t="s">
+        <v>338</v>
+      </c>
+      <c r="C97" t="s">
+        <v>335</v>
+      </c>
+      <c r="D97" t="s">
+        <v>442</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>512</v>
+      </c>
+      <c r="B98" t="s">
+        <v>513</v>
+      </c>
+      <c r="C98" t="s">
+        <v>514</v>
+      </c>
+      <c r="D98" t="s">
+        <v>515</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>516</v>
+      </c>
+      <c r="B99" t="s">
+        <v>517</v>
+      </c>
+      <c r="C99" t="s">
+        <v>518</v>
+      </c>
+      <c r="D99" t="s">
+        <v>519</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>520</v>
+      </c>
+      <c r="B100" t="s">
+        <v>521</v>
+      </c>
+      <c r="C100" t="s">
+        <v>522</v>
+      </c>
+      <c r="D100" t="s">
+        <v>523</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>20</v>
+      </c>
+      <c r="C101" t="s">
+        <v>99</v>
+      </c>
+      <c r="D101" t="s">
+        <v>524</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>525</v>
+      </c>
+      <c r="B102" t="s">
+        <v>526</v>
+      </c>
+      <c r="C102" t="s">
+        <v>527</v>
+      </c>
+      <c r="D102" t="s">
+        <v>528</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>529</v>
+      </c>
+      <c r="B103" t="s">
+        <v>530</v>
+      </c>
+      <c r="C103" t="s">
+        <v>529</v>
+      </c>
+      <c r="D103" t="s">
+        <v>531</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>532</v>
+      </c>
+      <c r="B104" t="s">
+        <v>533</v>
+      </c>
+      <c r="C104" t="s">
+        <v>532</v>
+      </c>
+      <c r="D104" t="s">
+        <v>534</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>535</v>
+      </c>
+      <c r="B105" t="s">
+        <v>536</v>
+      </c>
+      <c r="C105" t="s">
+        <v>537</v>
+      </c>
+      <c r="D105" t="s">
+        <v>538</v>
+      </c>
+      <c r="E105">
+        <v>4.9382716E-2</v>
+      </c>
+      <c r="F105" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>539</v>
+      </c>
+      <c r="B106" t="s">
+        <v>540</v>
+      </c>
+      <c r="C106" t="s">
+        <v>498</v>
+      </c>
+      <c r="D106" t="s">
+        <v>499</v>
+      </c>
+      <c r="E106">
+        <v>7.3924730999999994E-2</v>
+      </c>
+      <c r="F106" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>283</v>
+      </c>
+      <c r="B107" t="s">
+        <v>284</v>
+      </c>
+      <c r="C107" t="s">
+        <v>464</v>
+      </c>
+      <c r="D107" t="s">
+        <v>465</v>
+      </c>
+      <c r="E107">
+        <v>7.7777778000000006E-2</v>
+      </c>
+      <c r="F107" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>541</v>
+      </c>
+      <c r="B108" t="s">
+        <v>542</v>
+      </c>
+      <c r="C108" t="s">
+        <v>543</v>
+      </c>
+      <c r="D108" t="s">
+        <v>544</v>
+      </c>
+      <c r="E108">
+        <v>8.0808081000000004E-2</v>
+      </c>
+      <c r="F108" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>545</v>
+      </c>
+      <c r="B109" t="s">
+        <v>546</v>
+      </c>
+      <c r="C109" t="s">
+        <v>547</v>
+      </c>
+      <c r="D109" t="s">
+        <v>548</v>
+      </c>
+      <c r="E109">
+        <v>8.9186888000000006E-2</v>
+      </c>
+      <c r="F109" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>319</v>
+      </c>
+      <c r="B110" t="s">
+        <v>320</v>
+      </c>
+      <c r="C110" t="s">
+        <v>468</v>
+      </c>
+      <c r="D110" t="s">
+        <v>469</v>
+      </c>
+      <c r="E110">
+        <v>8.9783282000000006E-2</v>
+      </c>
+      <c r="F110" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>255</v>
+      </c>
+      <c r="B111" t="s">
+        <v>256</v>
+      </c>
+      <c r="C111" t="s">
+        <v>466</v>
+      </c>
+      <c r="D111" t="s">
+        <v>467</v>
+      </c>
+      <c r="E111">
+        <v>8.9783282000000006E-2</v>
+      </c>
+      <c r="F111" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>287</v>
+      </c>
+      <c r="B112" t="s">
+        <v>288</v>
+      </c>
+      <c r="C112" t="s">
+        <v>470</v>
+      </c>
+      <c r="D112" t="s">
+        <v>471</v>
+      </c>
+      <c r="E112">
+        <v>9.4907406999999999E-2</v>
+      </c>
+      <c r="F112" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>549</v>
+      </c>
+      <c r="B113" t="s">
+        <v>550</v>
+      </c>
+      <c r="C113" t="s">
+        <v>551</v>
+      </c>
+      <c r="D113" t="s">
+        <v>552</v>
+      </c>
+      <c r="E113">
+        <v>0.103174603</v>
+      </c>
+      <c r="F113" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>271</v>
+      </c>
+      <c r="B114" t="s">
+        <v>272</v>
+      </c>
+      <c r="C114" t="s">
+        <v>472</v>
+      </c>
+      <c r="D114" t="s">
+        <v>473</v>
+      </c>
+      <c r="E114">
+        <v>0.10714285699999999</v>
+      </c>
+      <c r="F114" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>553</v>
+      </c>
+      <c r="B115" t="s">
+        <v>554</v>
+      </c>
+      <c r="C115" t="s">
+        <v>555</v>
+      </c>
+      <c r="D115" t="s">
+        <v>556</v>
+      </c>
+      <c r="E115">
+        <v>0.115942029</v>
+      </c>
+      <c r="F115" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>295</v>
+      </c>
+      <c r="B116" t="s">
+        <v>296</v>
+      </c>
+      <c r="C116" t="s">
+        <v>482</v>
+      </c>
+      <c r="D116" t="s">
+        <v>483</v>
+      </c>
+      <c r="E116">
+        <v>0.118939394</v>
+      </c>
+      <c r="F116" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>557</v>
+      </c>
+      <c r="B117" t="s">
+        <v>558</v>
+      </c>
+      <c r="C117" t="s">
+        <v>559</v>
+      </c>
+      <c r="D117" t="s">
+        <v>560</v>
+      </c>
+      <c r="E117">
+        <v>0.11904761899999999</v>
+      </c>
+      <c r="F117" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>561</v>
+      </c>
+      <c r="B118" t="s">
+        <v>562</v>
+      </c>
+      <c r="C118" t="s">
+        <v>563</v>
+      </c>
+      <c r="D118" t="s">
+        <v>564</v>
+      </c>
+      <c r="E118">
+        <v>0.122807018</v>
+      </c>
+      <c r="F118" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>323</v>
+      </c>
+      <c r="B119" t="s">
+        <v>324</v>
+      </c>
+      <c r="C119" t="s">
+        <v>492</v>
+      </c>
+      <c r="D119" t="s">
+        <v>493</v>
+      </c>
+      <c r="E119">
+        <v>0.13148148100000001</v>
+      </c>
+      <c r="F119" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>327</v>
+      </c>
+      <c r="B120" t="s">
+        <v>328</v>
+      </c>
+      <c r="C120" t="s">
+        <v>494</v>
+      </c>
+      <c r="D120" t="s">
+        <v>495</v>
+      </c>
+      <c r="E120">
+        <v>0.13148148100000001</v>
+      </c>
+      <c r="F120" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>565</v>
+      </c>
+      <c r="B121" t="s">
+        <v>566</v>
+      </c>
+      <c r="C121" t="s">
+        <v>567</v>
+      </c>
+      <c r="D121" t="s">
+        <v>568</v>
+      </c>
+      <c r="E121">
+        <v>0.131993746</v>
+      </c>
+      <c r="F121" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>569</v>
+      </c>
+      <c r="B122" t="s">
+        <v>570</v>
+      </c>
+      <c r="C122" t="s">
+        <v>571</v>
+      </c>
+      <c r="D122" t="s">
+        <v>572</v>
+      </c>
+      <c r="E122">
+        <v>0.133333333</v>
+      </c>
+      <c r="F122" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>573</v>
+      </c>
+      <c r="B123" t="s">
+        <v>574</v>
+      </c>
+      <c r="C123" t="s">
+        <v>559</v>
+      </c>
+      <c r="D123" t="s">
+        <v>560</v>
+      </c>
+      <c r="E123">
+        <v>0.133333333</v>
+      </c>
+      <c r="F123" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>575</v>
+      </c>
+      <c r="B124" t="s">
+        <v>576</v>
+      </c>
+      <c r="C124" t="s">
+        <v>577</v>
+      </c>
+      <c r="D124" t="s">
+        <v>578</v>
+      </c>
+      <c r="E124">
+        <v>0.13636363600000001</v>
+      </c>
+      <c r="F124" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>132</v>
+      </c>
+      <c r="B125" t="s">
+        <v>32</v>
+      </c>
+      <c r="C125" t="s">
+        <v>134</v>
+      </c>
+      <c r="D125" t="s">
+        <v>33</v>
+      </c>
+      <c r="E125">
+        <v>0.13888888899999999</v>
+      </c>
+      <c r="F125" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>579</v>
+      </c>
+      <c r="B126" t="s">
+        <v>580</v>
+      </c>
+      <c r="C126" t="s">
+        <v>581</v>
+      </c>
+      <c r="D126" t="s">
+        <v>582</v>
+      </c>
+      <c r="E126">
+        <v>0.14035087700000001</v>
+      </c>
+      <c r="F126" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>365</v>
+      </c>
+      <c r="B127" t="s">
+        <v>366</v>
+      </c>
+      <c r="C127" t="s">
+        <v>583</v>
+      </c>
+      <c r="D127" t="s">
+        <v>584</v>
+      </c>
+      <c r="E127">
+        <v>0.14047619</v>
+      </c>
+      <c r="F127" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>585</v>
+      </c>
+      <c r="B128" t="s">
+        <v>586</v>
+      </c>
+      <c r="C128" t="s">
+        <v>587</v>
+      </c>
+      <c r="D128" t="s">
+        <v>588</v>
+      </c>
+      <c r="E128">
+        <v>0.14047619</v>
+      </c>
+      <c r="F128" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>589</v>
+      </c>
+      <c r="B129" t="s">
+        <v>590</v>
+      </c>
+      <c r="C129" t="s">
+        <v>551</v>
+      </c>
+      <c r="D129" t="s">
+        <v>552</v>
+      </c>
+      <c r="E129">
+        <v>0.14379085</v>
+      </c>
+      <c r="F129" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>591</v>
+      </c>
+      <c r="B130" t="s">
+        <v>592</v>
+      </c>
+      <c r="C130" t="s">
+        <v>551</v>
+      </c>
+      <c r="D130" t="s">
+        <v>552</v>
+      </c>
+      <c r="E130">
+        <v>0.14379085</v>
+      </c>
+      <c r="F130" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>520</v>
+      </c>
+      <c r="B131" t="s">
+        <v>521</v>
+      </c>
+      <c r="C131" t="s">
+        <v>593</v>
+      </c>
+      <c r="D131" t="s">
+        <v>594</v>
+      </c>
+      <c r="E131">
+        <v>0.14583333300000001</v>
+      </c>
+      <c r="F131" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>595</v>
+      </c>
+      <c r="B132" t="s">
+        <v>596</v>
+      </c>
+      <c r="C132" t="s">
+        <v>597</v>
+      </c>
+      <c r="D132" t="s">
+        <v>598</v>
+      </c>
+      <c r="E132">
+        <v>0.14942528699999999</v>
+      </c>
+      <c r="F132" t="s">
+        <v>599</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>